--- a/2023年题目信息/B题/result2.xlsx
+++ b/2023年题目信息/B题/result2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D97BC0-D223-4419-9B38-7053E97D577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>测量船距海域中心点处的距离/海里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,11 +33,22 @@
     <t>测线方向夹角/°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,37 +397,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -438,119 +453,426 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="C3" s="2">
+        <v>415.83468997908301</v>
+      </c>
+      <c r="D3" s="2">
+        <v>466.25082747309102</v>
+      </c>
+      <c r="E3" s="2">
+        <v>516.66696496709801</v>
+      </c>
+      <c r="F3" s="2">
+        <v>567.08310246110602</v>
+      </c>
+      <c r="G3" s="2">
+        <v>617.49923995511404</v>
+      </c>
+      <c r="H3" s="2">
+        <v>667.91537744912102</v>
+      </c>
+      <c r="I3" s="2">
+        <v>718.33151494312904</v>
+      </c>
+      <c r="J3" s="2">
+        <v>768.74765243713603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>45</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="C4" s="2">
+        <v>416.191498903156</v>
+      </c>
+      <c r="D4" s="2">
+        <v>451.87168090816698</v>
+      </c>
+      <c r="E4" s="2">
+        <v>487.55186291317801</v>
+      </c>
+      <c r="F4" s="2">
+        <v>523.23204491818899</v>
+      </c>
+      <c r="G4" s="2">
+        <v>558.91222692320002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>594.59240892821094</v>
+      </c>
+      <c r="I4" s="2">
+        <v>630.27259093322198</v>
+      </c>
+      <c r="J4" s="2">
+        <v>665.95277293823301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="C5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="E5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="F5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="G5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="H5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="I5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="J5" s="2">
+        <v>416.54908003873499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>135</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="C6" s="2">
+        <v>416.191498903156</v>
+      </c>
+      <c r="D6" s="2">
+        <v>380.51131689814503</v>
+      </c>
+      <c r="E6" s="2">
+        <v>344.83113489313399</v>
+      </c>
+      <c r="F6" s="2">
+        <v>309.15095288812302</v>
+      </c>
+      <c r="G6" s="2">
+        <v>273.47077088311198</v>
+      </c>
+      <c r="H6" s="2">
+        <v>237.790588878101</v>
+      </c>
+      <c r="I6" s="2">
+        <v>202.11040687309</v>
+      </c>
+      <c r="J6" s="2">
+        <v>166.43022486807899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>180</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="C7" s="2">
+        <v>415.83468997908301</v>
+      </c>
+      <c r="D7" s="2">
+        <v>365.41855248507602</v>
+      </c>
+      <c r="E7" s="2">
+        <v>315.00241499106801</v>
+      </c>
+      <c r="F7" s="2">
+        <v>264.58627749706</v>
+      </c>
+      <c r="G7" s="2">
+        <v>214.17014000305301</v>
+      </c>
+      <c r="H7" s="2">
+        <v>163.75400250904499</v>
+      </c>
+      <c r="I7" s="2">
+        <v>113.33786501503801</v>
+      </c>
+      <c r="J7" s="2">
+        <v>62.9217275210301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>225</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="C8" s="2">
+        <v>416.191498903156</v>
+      </c>
+      <c r="D8" s="2">
+        <v>380.51131689814503</v>
+      </c>
+      <c r="E8" s="2">
+        <v>344.83113489313399</v>
+      </c>
+      <c r="F8" s="2">
+        <v>309.15095288812302</v>
+      </c>
+      <c r="G8" s="2">
+        <v>273.47077088311198</v>
+      </c>
+      <c r="H8" s="2">
+        <v>237.790588878101</v>
+      </c>
+      <c r="I8" s="2">
+        <v>202.11040687309</v>
+      </c>
+      <c r="J8" s="2">
+        <v>166.43022486807899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>270</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="C9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="D9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="E9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="F9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="G9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="H9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="I9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="J9" s="2">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>315</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="2">
+        <v>416.191498903156</v>
+      </c>
+      <c r="D10" s="2">
+        <v>451.87168090816698</v>
+      </c>
+      <c r="E10" s="2">
+        <v>487.55186291317801</v>
+      </c>
+      <c r="F10" s="2">
+        <v>523.23204491818899</v>
+      </c>
+      <c r="G10" s="2">
+        <v>558.91222692320002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>594.59240892821094</v>
+      </c>
+      <c r="I10" s="2">
+        <v>630.27259093322198</v>
+      </c>
+      <c r="J10" s="2">
+        <v>665.95277293823301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0.193586281124248</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0.51180381722205603</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0.80159330608970503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1.05668305700174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1.3055475764987901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1.53692429801778</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1.75022864713656</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1.9468768950791</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>2.1281674095266498</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>2.2952981680490501</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>2.44937273653996</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>2.59141958936346</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>2.7223614898564601</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>2.84308860751324</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>2.95438724061396</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>3.05699373042017</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>3.1515766420959901</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>3.2387831354971102</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>3.3191692512050701</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>3.3930281364136401</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>3.4613778754566802</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>3.5243894328329102</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>3.5824753896802601</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>3.6360287089660601</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>3.6853708207220102</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>3.7308893312559301</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>3.7728529605796601</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>3.81153933597647</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>3.8472009359491199</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>3.88008092142762</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>3.9103930627214698</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>3.93833790331766</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>3.96409722592887</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>3.9878351052791299</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2023年题目信息/B题/result2.xlsx
+++ b/2023年题目信息/B题/result2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D97BC0-D223-4419-9B38-7053E97D577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2832D3F-FD7E-434B-9637-DD3F41A57DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>测量船距海域中心点处的距离/海里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,9 +40,6 @@
   <si>
     <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x =</t>
   </si>
 </sst>
 </file>
@@ -107,11 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,36 +392,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -453,425 +447,256 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>415.83468997908301</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>466.25082747309102</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>516.66696496709801</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>567.08310246110602</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>617.49923995511404</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>667.91537744912102</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>718.33151494312904</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>768.74765243713603</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>45</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>416.191498903156</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>451.87168090816698</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>487.55186291317801</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>523.23204491818899</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>558.91222692320002</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>594.59240892821094</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>630.27259093322198</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>665.95277293823301</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="D5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="E5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="F5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="G5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="H5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="I5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="J5" s="2">
-        <v>416.54908003873499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="C5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="D5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="E5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="F5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="G5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="H5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="I5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="J5" s="1">
+        <v>416.54908003873499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>135</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>416.191498903156</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>380.51131689814503</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>344.83113489313399</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>309.15095288812302</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>273.47077088311198</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>237.790588878101</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>202.11040687309</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>166.43022486807899</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>180</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>415.83468997908301</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>365.41855248507602</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>315.00241499106801</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>264.58627749706</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>214.17014000305301</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>163.75400250904499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>113.33786501503801</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>62.9217275210301</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>225</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>416.191498903156</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>380.51131689814503</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>344.83113489313399</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>309.15095288812302</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>273.47077088311198</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>237.790588878101</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>202.11040687309</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>166.43022486807899</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>270</v>
       </c>
-      <c r="C9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="D9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="E9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="F9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="G9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="H9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="I9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="J9" s="2">
-        <v>416.54908003873499</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="C9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="D9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="E9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="F9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="G9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="H9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="I9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+      <c r="J9" s="1">
+        <v>416.54908003873499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>315</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>416.191498903156</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>451.87168090816698</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>487.55186291317801</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>523.23204491818899</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>558.91222692320002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>594.59240892821094</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>630.27259093322198</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>665.95277293823301</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N11">
-        <v>0.193586281124248</v>
-      </c>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="O11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N12">
-        <v>0.51180381722205603</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="O12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N13">
-        <v>0.80159330608970503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N14">
-        <v>1.05668305700174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N15">
-        <v>1.3055475764987901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N16">
-        <v>1.53692429801778</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17">
-        <v>1.75022864713656</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18">
-        <v>1.9468768950791</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N19">
-        <v>2.1281674095266498</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N20">
-        <v>2.2952981680490501</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21">
-        <v>2.44937273653996</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N22">
-        <v>2.59141958936346</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23">
-        <v>2.7223614898564601</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N24">
-        <v>2.84308860751324</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N25">
-        <v>2.95438724061396</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N26">
-        <v>3.05699373042017</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N27">
-        <v>3.1515766420959901</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N28">
-        <v>3.2387831354971102</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N29">
-        <v>3.3191692512050701</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N30">
-        <v>3.3930281364136401</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N31">
-        <v>3.4613778754566802</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N32">
-        <v>3.5243894328329102</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N33">
-        <v>3.5824753896802601</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N34">
-        <v>3.6360287089660601</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N35">
-        <v>3.6853708207220102</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N36">
-        <v>3.7308893312559301</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N37">
-        <v>3.7728529605796601</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N38">
-        <v>3.81153933597647</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N39">
-        <v>3.8472009359491199</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N40">
-        <v>3.88008092142762</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N41">
-        <v>3.9103930627214698</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N42">
-        <v>3.93833790331766</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N43">
-        <v>3.96409722592887</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N44">
-        <v>3.9878351052791299</v>
       </c>
     </row>
   </sheetData>
